--- a/po_analysis_by_asin/B0BNP2CMXM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BNP2CMXM_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,15 +527,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -606,7 +598,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BNP2CMXM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BNP2CMXM_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -557,7 +558,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -599,6 +600,299 @@
       </c>
       <c r="B6" t="n">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.54033659815663</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.27112205901213</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.47679374089636</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.25169601461835</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.10786475883537</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.97405307847627</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>26</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.656799205620709</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.04217157487792</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>38</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.50295391447736</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59.42702658261985</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>40</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.53107948053091</v>
+      </c>
+      <c r="D7" t="n">
+        <v>61.00572623170741</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.33057259120463</v>
+      </c>
+      <c r="D8" t="n">
+        <v>62.87760092590094</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>44</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.10682576205002</v>
+      </c>
+      <c r="D9" t="n">
+        <v>65.84110845020535</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>46</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.92464632241801</v>
+      </c>
+      <c r="D10" t="n">
+        <v>68.44956642931274</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>48</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.03813005306147</v>
+      </c>
+      <c r="D11" t="n">
+        <v>70.37062452389659</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27.92171329825141</v>
+      </c>
+      <c r="D12" t="n">
+        <v>69.87441517712246</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.01925422432577</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73.04287936733478</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>54</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.49111758512256</v>
+      </c>
+      <c r="D14" t="n">
+        <v>75.4409022868758</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>56</v>
+      </c>
+      <c r="C15" t="n">
+        <v>34.46584562674527</v>
+      </c>
+      <c r="D15" t="n">
+        <v>76.39314205672244</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>58</v>
+      </c>
+      <c r="C16" t="n">
+        <v>35.644702170016</v>
+      </c>
+      <c r="D16" t="n">
+        <v>79.12049177483895</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>60</v>
+      </c>
+      <c r="C17" t="n">
+        <v>36.80869540763415</v>
+      </c>
+      <c r="D17" t="n">
+        <v>80.94878391936219</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>62</v>
+      </c>
+      <c r="C18" t="n">
+        <v>39.56681526909038</v>
+      </c>
+      <c r="D18" t="n">
+        <v>83.25561374459986</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>64</v>
+      </c>
+      <c r="C19" t="n">
+        <v>40.55544836503702</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85.59315223740235</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BNP2CMXM_po_data.xlsx
+++ b/po_analysis_by_asin/B0BNP2CMXM_po_data.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,16 +632,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -650,12 +640,6 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>-13.54033659815663</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.27112205901213</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -664,12 +648,6 @@
       <c r="B3" t="n">
         <v>14</v>
       </c>
-      <c r="C3" t="n">
-        <v>-5.47679374089636</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.25169601461835</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -678,12 +656,6 @@
       <c r="B4" t="n">
         <v>18</v>
       </c>
-      <c r="C4" t="n">
-        <v>-4.10786475883537</v>
-      </c>
-      <c r="D4" t="n">
-        <v>37.97405307847627</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -692,12 +664,6 @@
       <c r="B5" t="n">
         <v>26</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.656799205620709</v>
-      </c>
-      <c r="D5" t="n">
-        <v>49.04217157487792</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -706,12 +672,6 @@
       <c r="B6" t="n">
         <v>38</v>
       </c>
-      <c r="C6" t="n">
-        <v>15.50295391447736</v>
-      </c>
-      <c r="D6" t="n">
-        <v>59.42702658261985</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -720,12 +680,6 @@
       <c r="B7" t="n">
         <v>40</v>
       </c>
-      <c r="C7" t="n">
-        <v>16.53107948053091</v>
-      </c>
-      <c r="D7" t="n">
-        <v>61.00572623170741</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -734,12 +688,6 @@
       <c r="B8" t="n">
         <v>42</v>
       </c>
-      <c r="C8" t="n">
-        <v>20.33057259120463</v>
-      </c>
-      <c r="D8" t="n">
-        <v>62.87760092590094</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -748,12 +696,6 @@
       <c r="B9" t="n">
         <v>44</v>
       </c>
-      <c r="C9" t="n">
-        <v>22.10682576205002</v>
-      </c>
-      <c r="D9" t="n">
-        <v>65.84110845020535</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -762,12 +704,6 @@
       <c r="B10" t="n">
         <v>46</v>
       </c>
-      <c r="C10" t="n">
-        <v>22.92464632241801</v>
-      </c>
-      <c r="D10" t="n">
-        <v>68.44956642931274</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -776,12 +712,6 @@
       <c r="B11" t="n">
         <v>48</v>
       </c>
-      <c r="C11" t="n">
-        <v>26.03813005306147</v>
-      </c>
-      <c r="D11" t="n">
-        <v>70.37062452389659</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -790,12 +720,6 @@
       <c r="B12" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="n">
-        <v>27.92171329825141</v>
-      </c>
-      <c r="D12" t="n">
-        <v>69.87441517712246</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -804,12 +728,6 @@
       <c r="B13" t="n">
         <v>52</v>
       </c>
-      <c r="C13" t="n">
-        <v>30.01925422432577</v>
-      </c>
-      <c r="D13" t="n">
-        <v>73.04287936733478</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -818,12 +736,6 @@
       <c r="B14" t="n">
         <v>54</v>
       </c>
-      <c r="C14" t="n">
-        <v>30.49111758512256</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75.4409022868758</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -832,12 +744,6 @@
       <c r="B15" t="n">
         <v>56</v>
       </c>
-      <c r="C15" t="n">
-        <v>34.46584562674527</v>
-      </c>
-      <c r="D15" t="n">
-        <v>76.39314205672244</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -846,12 +752,6 @@
       <c r="B16" t="n">
         <v>58</v>
       </c>
-      <c r="C16" t="n">
-        <v>35.644702170016</v>
-      </c>
-      <c r="D16" t="n">
-        <v>79.12049177483895</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -860,12 +760,6 @@
       <c r="B17" t="n">
         <v>60</v>
       </c>
-      <c r="C17" t="n">
-        <v>36.80869540763415</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80.94878391936219</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -874,12 +768,6 @@
       <c r="B18" t="n">
         <v>62</v>
       </c>
-      <c r="C18" t="n">
-        <v>39.56681526909038</v>
-      </c>
-      <c r="D18" t="n">
-        <v>83.25561374459986</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -887,12 +775,6 @@
       </c>
       <c r="B19" t="n">
         <v>64</v>
-      </c>
-      <c r="C19" t="n">
-        <v>40.55544836503702</v>
-      </c>
-      <c r="D19" t="n">
-        <v>85.59315223740235</v>
       </c>
     </row>
   </sheetData>
